--- a/product-data.xlsx
+++ b/product-data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="147">
   <si>
     <t xml:space="preserve">categoryID</t>
   </si>
@@ -338,6 +338,129 @@
   </si>
   <si>
     <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶項鍊 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">紫水晶 女士項鍊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13cm,14cm,16cm,18cm,20cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14cm,14cm,16cm,18cm,20cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15cm,14cm,16cm,18cm,20cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16cm,14cm,16cm,18cm,20cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶戒指</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紫龍晶 女士項鍊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17cm,14cm,16cm,18cm,20cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18cm,14cm,16cm,18cm,20cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19cm,14cm,16cm,18cm,20cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20cm,14cm,16cm,18cm,20cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21cm,14cm,16cm,18cm,20cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22cm,14cm,16cm,18cm,20cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23cm,14cm,16cm,18cm,20cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24cm,14cm,16cm,18cm,20cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25cm,14cm,16cm,18cm,20cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26cm,14cm,16cm,18cm,20cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27cm,14cm,16cm,18cm,20cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28cm,14cm,16cm,18cm,20cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21K3134</t>
   </si>
 </sst>
 </file>
@@ -378,7 +501,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -423,13 +546,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -449,1752 +584,2899 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q45" activeCellId="0" sqref="Q45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="1" style="1" width="7.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="7.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="7.46"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="0" t="s">
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="0" t="s">
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="0" t="s">
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="M5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="0" t="s">
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="K6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="M6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="0" t="s">
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="K7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="M7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="0" t="s">
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="M8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="0" t="s">
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="K9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="M9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="0" t="s">
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="M10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="0" t="s">
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="M11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="0" t="s">
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="M12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="0" t="s">
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="K13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="M13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="0" t="s">
+      <c r="I14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="K14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="M14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="0" t="s">
+      <c r="I15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="M15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="0" t="s">
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="M16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="0" t="s">
+      <c r="I17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="1" t="s">
+      <c r="M17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="0" t="s">
+      <c r="I18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="K18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" s="1" t="s">
+      <c r="M18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="0" t="s">
+      <c r="I19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="1" t="s">
+      <c r="K19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="M19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="0" t="s">
+      <c r="I20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="1" t="s">
+      <c r="M20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="0" t="s">
+      <c r="I21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="K21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" s="1" t="s">
+      <c r="M21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="0" t="s">
+      <c r="I22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="K22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="1" t="s">
+      <c r="M22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="0" t="s">
+      <c r="I23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="K23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="1" t="s">
+      <c r="M23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="0" t="s">
+      <c r="I24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K24" s="0" t="s">
+      <c r="K24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" s="1" t="s">
+      <c r="M24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="0" t="s">
+      <c r="I25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="1" t="s">
+      <c r="K25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N25" s="1" t="s">
+      <c r="M25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="G26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="0" t="s">
+      <c r="I26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L26" s="1" t="s">
+      <c r="K26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26" s="1" t="s">
+      <c r="M26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="0" t="s">
+      <c r="I27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="1" t="s">
+      <c r="K27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N27" s="1" t="s">
+      <c r="M27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="G28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="0" t="s">
+      <c r="I28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K28" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="1" t="s">
+      <c r="K28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" s="1" t="s">
+      <c r="M28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="G29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="0" t="s">
+      <c r="I29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="1" t="s">
+      <c r="K29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N29" s="1" t="s">
+      <c r="M29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="0" t="s">
+      <c r="I30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" s="1" t="s">
+      <c r="K32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N30" s="1" t="s">
+      <c r="M32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="O32" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E36" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F36" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="G36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="0" t="s">
+      <c r="I36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K31" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="1" t="s">
+      <c r="K36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" s="1" t="s">
+      <c r="M36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="O36" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F37" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="G37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="0" t="s">
+      <c r="I37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K32" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="1" t="s">
+      <c r="K37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N32" s="1" t="s">
+      <c r="M37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="O37" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>3002</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>3003</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>3004</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>3005</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>3006</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>3007</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>3008</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="0" t="s">
+      <c r="I45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K33" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="K45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>3009</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" s="0" t="s">
+      <c r="I46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K34" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="K46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>3010</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>3011</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>3012</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="0" t="s">
+      <c r="I49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K35" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="K49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>4001</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>4002</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>4003</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>4004</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="0" t="s">
+      <c r="I53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K36" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="K53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>4005</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="0" t="s">
+      <c r="I54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K37" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="K54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>4006</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>4007</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>4008</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>4009</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>4010</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>4011</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>4012</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="2"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H64" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
